--- a/QueryCau4.xlsx
+++ b/QueryCau4.xlsx
@@ -5,26 +5,26 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025\School\OLAP\IS217_Q13_23521367_23520982\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025\School\IS217_Q13_23521367_23520982\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5128FFB-FAF2-4FCE-9B14-7607D56BD21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC24C99D-E7A7-4CEC-84F2-FAC359E07859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{CD2C71BB-2EC6-440F-A8E8-EADED245C3C8}"/>
+    <workbookView xWindow="3930" yWindow="1050" windowWidth="21600" windowHeight="11295" xr2:uid="{EE4E550D-A0D2-42F0-8299-2AD1415D6DF5}"/>
   </bookViews>
   <sheets>
-    <sheet name="tmpE873" sheetId="1" r:id="rId1"/>
+    <sheet name="tmp4206" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="43" r:id="rId2"/>
+    <pivotCache cacheId="76" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{8C4E7F16-1585-49B2-9826-10F9B41C6721}" odcFile="C:\Users\SINISTER\AppData\Local\Temp\tmpE873.odc" keepAlive="1" name="SINISTER ssas_project" type="5" refreshedVersion="8" background="1">
+  <connection id="1" xr16:uid="{F0AACEDE-07F6-4B7B-8D96-49D08209C81A}" odcFile="C:\Users\SINISTER\AppData\Local\Temp\tmp4206.odc" keepAlive="1" name="SINISTER ssas_project" type="5" refreshedVersion="8" background="1">
     <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=ssas_project;Data Source=SINISTER;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="US Accidents DW" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -33,6 +33,15 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+  <si>
+    <t>Total Accidents</t>
+  </si>
+  <si>
+    <t>AvgSeverity</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
   <si>
     <t>2018</t>
   </si>
@@ -65,15 +74,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Total Accidents</t>
-  </si>
-  <si>
-    <t>AvgSeverity</t>
   </si>
 </sst>
 </file>
@@ -562,6 +562,8 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -569,8 +571,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -630,46 +630,57 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="SINISTER" refreshedDate="45970.530662731479" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{686D511E-8304-4C29-BAFF-8EF850682DC1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="SINISTER" refreshedDate="45977.435317476855" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{9E472491-6B62-4BB1-B90C-CBDC46656927}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="5">
-    <cacheField name="[DIM TIME].[YEAR].[YEAR]" caption="YEAR" numFmtId="0" hierarchy="30" level="1">
+  <cacheFields count="11">
+    <cacheField name="[Measures].[Total Accidents]" caption="Total Accidents" numFmtId="0" hierarchy="47" level="32767"/>
+    <cacheField name="[Measures].[AvgSeverity]" caption="AvgSeverity" numFmtId="0" hierarchy="48" level="32767"/>
+    <cacheField name="[DIM TIME].[Hierarchy].[YEAR]" caption="YEAR" numFmtId="0" hierarchy="26" level="1">
       <sharedItems count="6">
-        <s v="[DIM TIME].[YEAR].&amp;[2018]" c="2018"/>
-        <s v="[DIM TIME].[YEAR].&amp;[2019]" c="2019"/>
-        <s v="[DIM TIME].[YEAR].&amp;[2020]" c="2020"/>
-        <s v="[DIM TIME].[YEAR].&amp;[2021]" c="2021"/>
-        <s v="[DIM TIME].[YEAR].&amp;[2022]" c="2022"/>
-        <s v="[DIM TIME].[YEAR].&amp;[2023]" c="2023"/>
+        <s v="[DIM TIME].[Hierarchy].[YEAR].&amp;[2018]" c="2018"/>
+        <s v="[DIM TIME].[Hierarchy].[YEAR].&amp;[2019]" c="2019"/>
+        <s v="[DIM TIME].[Hierarchy].[YEAR].&amp;[2020]" c="2020"/>
+        <s v="[DIM TIME].[Hierarchy].[YEAR].&amp;[2021]" c="2021"/>
+        <s v="[DIM TIME].[Hierarchy].[YEAR].&amp;[2022]" c="2022"/>
+        <s v="[DIM TIME].[Hierarchy].[YEAR].&amp;[2023]" c="2023"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[DIM TIME].[QUARTER].[QUARTER]" caption="QUARTER" numFmtId="0" hierarchy="28" level="1" mappingCount="1">
+    <cacheField name="[DIM TIME].[Hierarchy].[QUARTER]" caption="QUARTER" numFmtId="0" hierarchy="26" level="2" mappingCount="1">
       <sharedItems count="21">
-        <s v="[DIM TIME].[QUARTER].&amp;[1]&amp;[2018]" c="1"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[1]&amp;[2019]" c="1"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[1]&amp;[2020]" c="1"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[1]&amp;[2021]" c="1"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[1]&amp;[2022]" c="1"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[1]&amp;[2023]" c="1"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[2]&amp;[2018]" c="2"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[2]&amp;[2019]" c="2"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[2]&amp;[2020]" c="2"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[2]&amp;[2021]" c="2"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[2]&amp;[2022]" c="2"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[3]&amp;[2018]" c="3"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[3]&amp;[2019]" c="3"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[3]&amp;[2020]" c="3"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[3]&amp;[2021]" c="3"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[3]&amp;[2022]" c="3"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[4]&amp;[2018]" c="4"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[4]&amp;[2019]" c="4"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[4]&amp;[2020]" c="4"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[4]&amp;[2021]" c="4"/>
-        <s v="[DIM TIME].[QUARTER].&amp;[4]&amp;[2022]" c="4"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[1]&amp;[2018]" c="1"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[2]&amp;[2018]" c="2"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[3]&amp;[2018]" c="3"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[4]&amp;[2018]" c="4"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[1]&amp;[2019]" c="1"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[2]&amp;[2019]" c="2"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[3]&amp;[2019]" c="3"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[4]&amp;[2019]" c="4"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[1]&amp;[2020]" c="1"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[2]&amp;[2020]" c="2"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[3]&amp;[2020]" c="3"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[4]&amp;[2020]" c="4"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[1]&amp;[2021]" c="1"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[2]&amp;[2021]" c="2"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[3]&amp;[2021]" c="3"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[4]&amp;[2021]" c="4"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[1]&amp;[2022]" c="1"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[2]&amp;[2022]" c="2"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[3]&amp;[2022]" c="3"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[4]&amp;[2022]" c="4"/>
+        <s v="[DIM TIME].[Hierarchy].[QUARTER].&amp;[1]&amp;[2023]" c="1"/>
       </sharedItems>
-      <mpMap v="2"/>
+      <mpMap v="7"/>
     </cacheField>
-    <cacheField name="[DIM TIME].[QUARTER].[QUARTER].[YEAR]" caption="YEAR" propertyName="YEAR" numFmtId="0" hierarchy="28" level="1" memberPropertyField="1">
+    <cacheField name="[DIM TIME].[Hierarchy].[MONTH]" caption="MONTH" numFmtId="0" hierarchy="26" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[DIM TIME].[Hierarchy].[DAY]" caption="DAY" numFmtId="0" hierarchy="26" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[DIM TIME].[Hierarchy].[HOUR]" caption="HOUR" numFmtId="0" hierarchy="26" level="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[DIM TIME].[Hierarchy].[QUARTER].[YEAR]" caption="YEAR" propertyName="YEAR" numFmtId="0" hierarchy="26" level="2" memberPropertyField="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2018" maxValue="2023" count="6">
         <n v="2018"/>
         <n v="2019"/>
@@ -679,10 +690,17 @@
         <n v="2023"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[AvgSeverity]" caption="AvgSeverity" numFmtId="0" hierarchy="46" level="32767"/>
-    <cacheField name="[Measures].[Total Accidents]" caption="Total Accidents" numFmtId="0" hierarchy="45" level="32767"/>
+    <cacheField name="[DIM TIME].[Hierarchy].[MONTH].[QUARTER]" caption="QUARTER" propertyName="QUARTER" numFmtId="0" hierarchy="26" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[DIM TIME].[Hierarchy].[DAY].[MONTH]" caption="MONTH" propertyName="MONTH" numFmtId="0" hierarchy="26" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[DIM TIME].[Hierarchy].[HOUR].[DAY]" caption="DAY" propertyName="DAY" numFmtId="0" hierarchy="26" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
   </cacheFields>
-  <cacheHierarchies count="57">
+  <cacheHierarchies count="61">
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[AMENITY]" caption="AMENITY" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[AMENITY].[All]" allUniqueName="[DIM ENVIRONMENT].[AMENITY].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[BUMP]" caption="BUMP" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[BUMP].[All]" allUniqueName="[DIM ENVIRONMENT].[BUMP].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[CROSSING]" caption="CROSSING" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[CROSSING].[All]" allUniqueName="[DIM ENVIRONMENT].[CROSSING].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
@@ -698,6 +716,7 @@
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL]" caption="TRAFFIC SIGNAL" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL].[All]" allUniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[TURNING LOOP]" caption="TURNING LOOP" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[TURNING LOOP].[All]" allUniqueName="[DIM ENVIRONMENT].[TURNING LOOP].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[CITY]" caption="CITY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[CITY].[All]" allUniqueName="[DIM LOCATION].[CITY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM LOCATION].[COUNTRY]" caption="COUNTRY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[COUNTRY].[All]" allUniqueName="[DIM LOCATION].[COUNTRY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[COUNTY]" caption="COUNTY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[COUNTY].[All]" allUniqueName="[DIM LOCATION].[COUNTY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[DIM LOCATION].[Hierarchy].[All]" allUniqueName="[DIM LOCATION].[Hierarchy].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[LATITUDE]" caption="LATITUDE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[LATITUDE].[All]" allUniqueName="[DIM LOCATION].[LATITUDE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
@@ -706,24 +725,24 @@
     <cacheHierarchy uniqueName="[DIM LOCATION].[STATE]" caption="STATE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[STATE].[All]" allUniqueName="[DIM LOCATION].[STATE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[STREET]" caption="STREET" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[STREET].[All]" allUniqueName="[DIM LOCATION].[STREET].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[ZIPCODE]" caption="ZIPCODE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[ZIPCODE].[All]" allUniqueName="[DIM LOCATION].[ZIPCODE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIME].[DATE]" caption="DATE" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[DATE].[All]" allUniqueName="[DIM TIME].[DATE].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[DAY]" caption="DAY" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[DAY].[All]" allUniqueName="[DIM TIME].[DAY].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM TIME].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[DIM TIME].[Hierarchy].[All]" allUniqueName="[DIM TIME].[Hierarchy].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIME].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[DIM TIME].[Hierarchy].[All]" allUniqueName="[DIM TIME].[Hierarchy].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="6" unbalanced="0">
+      <fieldsUsage count="6">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+        <fieldUsage x="4"/>
+        <fieldUsage x="5"/>
+        <fieldUsage x="6"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[DIM TIME].[HOUR]" caption="HOUR" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[HOUR].[All]" allUniqueName="[DIM TIME].[HOUR].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[IS WEEKEND]" caption="IS WEEKEND" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[IS WEEKEND].[All]" allUniqueName="[DIM TIME].[IS WEEKEND].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[MONTH]" caption="MONTH" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[MONTH].[All]" allUniqueName="[DIM TIME].[MONTH].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM TIME].[QUARTER]" caption="QUARTER" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[QUARTER].[All]" allUniqueName="[DIM TIME].[QUARTER].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[DIM TIME].[QUARTER]" caption="QUARTER" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[QUARTER].[All]" allUniqueName="[DIM TIME].[QUARTER].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[TIME ID]" caption="TIME ID" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[DIM TIME].[TIME ID].[All]" allUniqueName="[DIM TIME].[TIME ID].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM TIME].[YEAR]" caption="YEAR" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[YEAR].[All]" allUniqueName="[DIM TIME].[YEAR].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[DIM TIME].[YEAR]" caption="YEAR" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[YEAR].[All]" allUniqueName="[DIM TIME].[YEAR].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM WEATHER].[HUMIDITY]" caption="HUMIDITY" attribute="1" defaultMemberUniqueName="[DIM WEATHER].[HUMIDITY].[All]" allUniqueName="[DIM WEATHER].[HUMIDITY].[All]" dimensionUniqueName="[DIM WEATHER]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM WEATHER].[PRECIPITATION]" caption="PRECIPITATION" attribute="1" defaultMemberUniqueName="[DIM WEATHER].[PRECIPITATION].[All]" allUniqueName="[DIM WEATHER].[PRECIPITATION].[All]" dimensionUniqueName="[DIM WEATHER]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM WEATHER].[PRESSURE]" caption="PRESSURE" attribute="1" defaultMemberUniqueName="[DIM WEATHER].[PRESSURE].[All]" allUniqueName="[DIM WEATHER].[PRESSURE].[All]" dimensionUniqueName="[DIM WEATHER]" displayFolder="" count="0" unbalanced="0"/>
@@ -740,24 +759,26 @@
     <cacheHierarchy uniqueName="[Measures].[DURATION]" caption="DURATION" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Total Accidents]" caption="Total Accidents" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="4"/>
+        <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[AvgSeverity]" caption="AvgSeverity" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="3"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[DangerIndex]" caption="DangerIndex" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[YoYGrowth_Percent]" caption="YoYGrowth_Percent" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Avg YoY Growth Range]" caption="Avg YoY Growth Range" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Accidents (Traffic Signal)]" caption="Accidents (Traffic Signal)" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Accidents (Stop Sign)]" caption="Accidents (Stop Sign)" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Top20CityHighestGrowth]" caption="Top20CityHighestGrowth" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top5CityMostDangerous]" caption="Top5CityMostDangerous" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top3CityTotalAccidentsPerState]" caption="Top3CityTotalAccidentsPerState" set="1" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[ExceptionSunriseSunset]" caption="ExceptionSunriseSunset" set="1" parentSet="36" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
     <cacheHierarchy uniqueName="[ListCityGreaterThan1000Accidents]" caption="ListCityGreaterThan1000Accidents" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Top5CityMostDangerous]" caption="Top5CityMostDangerous" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Top10StateHighestAccidents]" caption="Top10StateHighestAccidents" set="1" parentSet="20" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[ExceptionSunriseSunset]" caption="ExceptionSunriseSunset" set="1" parentSet="34" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Top10DangerousStreet]" caption="Top10DangerousStreet" set="1" parentSet="21" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Top3CityTotalAccidentsPerState]" caption="Top3CityTotalAccidentsPerState" set="1" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top10StateHighestAccidents]" caption="Top10StateHighestAccidents" set="1" parentSet="21" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top10DangerousStreet]" caption="Top10DangerousStreet" set="1" parentSet="22" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="5">
@@ -785,51 +806,57 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F761D2B4-D2B9-4DED-AD7E-8B7A6BAF2A4A}" name="PivotTable1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{612DAF66-BD41-4595-8C48-C6C4B086F92B}" name="PivotTable1" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:C29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+  <pivotFields count="11">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
       <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
+        <item c="1" x="0" d="1"/>
+        <item c="1" x="1" d="1"/>
+        <item c="1" x="2" d="1"/>
+        <item c="1" x="3" d="1"/>
+        <item c="1" x="4" d="1"/>
+        <item c="1" x="5" d="1"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
       <items count="21">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
+        <item c="1" x="0"/>
+        <item c="1" x="1"/>
+        <item c="1" x="2"/>
+        <item c="1" x="3"/>
+        <item c="1" x="4"/>
+        <item c="1" x="5"/>
+        <item c="1" x="6"/>
+        <item c="1" x="7"/>
+        <item c="1" x="8"/>
+        <item c="1" x="9"/>
+        <item c="1" x="10"/>
+        <item c="1" x="11"/>
+        <item c="1" x="12"/>
+        <item c="1" x="13"/>
+        <item c="1" x="14"/>
+        <item c="1" x="15"/>
+        <item c="1" x="16"/>
+        <item c="1" x="17"/>
+        <item c="1" x="18"/>
+        <item c="1" x="19"/>
+        <item c="1" x="20"/>
       </items>
     </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
   </pivotFields>
   <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
+    <field x="2"/>
+    <field x="3"/>
   </rowFields>
   <rowItems count="28">
     <i>
@@ -839,79 +866,79 @@
       <x/>
     </i>
     <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
     </i>
     <i r="1">
       <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
       <x v="8"/>
     </i>
     <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
     </i>
     <i r="1">
       <x v="14"/>
     </i>
     <i r="1">
-      <x v="19"/>
+      <x v="15"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i r="1">
-      <x v="5"/>
+      <x v="20"/>
     </i>
     <i t="grand">
       <x/>
@@ -929,12 +956,10 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField fld="4" baseField="0" baseItem="0"/>
-    <dataField fld="3" baseField="0" baseItem="0"/>
+    <dataField fld="0" baseField="0" baseItem="0"/>
+    <dataField fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="57">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="61">
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -962,10 +987,17 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy>
-      <mps count="1">
-        <mp field="2"/>
+      <mps count="4">
+        <mp field="7"/>
+        <mp field="8"/>
+        <mp field="9"/>
+        <mp field="10"/>
       </mps>
     </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -987,6 +1019,8 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -996,9 +1030,8 @@
     <pivotHierarchy/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="30"/>
-    <rowHierarchyUsage hierarchyUsage="28"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="26"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
@@ -1330,312 +1363,312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1959856D-F58F-4A2E-81C4-0235E033C93E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BF3858-D073-4C26-A89C-BF5D74DB60F0}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>220029</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" s="1">
+        <v>216289</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B5" s="1">
+        <v>214692</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B6" s="1">
+        <v>238610</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>222458</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>211966</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>230636</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>286275</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>259851</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>260814</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>147804</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>409947</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>358305</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1">
+        <v>291123</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1">
+        <v>328628</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1">
+        <v>417250</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4">
-        <v>220029</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1">
+        <v>324752</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1">
+        <v>351643</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1">
+        <v>309819</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1">
+        <v>271674</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
-        <v>216289</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1">
+        <v>165529</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4">
-        <v>214692</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4">
-        <v>238610</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>222458</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>211966</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>230636</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>286275</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="4">
-        <v>259851</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4">
-        <v>260814</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4">
-        <v>147804</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4">
-        <v>409947</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="4">
-        <v>358305</v>
-      </c>
-      <c r="C18" s="5">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="4">
-        <v>291123</v>
-      </c>
-      <c r="C19" s="5">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="4">
-        <v>328628</v>
-      </c>
-      <c r="C20" s="5">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="4">
-        <v>417250</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="4">
-        <v>324752</v>
-      </c>
-      <c r="C23" s="5">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="4">
-        <v>351643</v>
-      </c>
-      <c r="C24" s="5">
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="4">
-        <v>309819</v>
-      </c>
-      <c r="C25" s="5">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="4">
-        <v>271674</v>
-      </c>
-      <c r="C26" s="5">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="4">
-        <v>165529</v>
-      </c>
-      <c r="C28" s="5">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="4">
+      <c r="B29" s="1">
         <v>5738094</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="2">
         <v>2.2000000000000002</v>
       </c>
     </row>
